--- a/2020项目对接/项目进度表.xlsx
+++ b/2020项目对接/项目进度表.xlsx
@@ -3559,7 +3559,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
